--- a/DATA_goal/Junction_Flooding_134.xlsx
+++ b/DATA_goal/Junction_Flooding_134.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41566.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>4.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>3.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>5.88</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41566.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.02</v>
+        <v>3.8</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.46</v>
+        <v>3.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.09</v>
+        <v>5.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.67</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.42</v>
+        <v>20.44</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.95</v>
+        <v>3.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.92</v>
+        <v>2.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.8</v>
+        <v>4.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41566.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.28</v>
+        <v>1.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.81</v>
+        <v>3.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.15</v>
+        <v>2.71</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.95</v>
+        <v>4.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>174.66</v>
+        <v>17.47</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.33</v>
+        <v>2.23</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.91</v>
+        <v>2.29</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.31</v>
+        <v>4.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41566.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.2</v>
+        <v>3.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.98</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.84</v>
+        <v>4.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>159.78</v>
+        <v>15.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.01</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.62</v>
+        <v>3.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41566.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>109.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.25</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41566.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>20.79</v>
+        <v>2.08</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>64.79000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41566.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40.37</v>
+        <v>4.04</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.38</v>
+        <v>3.34</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>53.65</v>
+        <v>5.36</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>214.7</v>
+        <v>21.47</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>40.7</v>
+        <v>4.07</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.42</v>
+        <v>2.74</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.55</v>
+        <v>1.46</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.51</v>
+        <v>2.65</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.43</v>
+        <v>4.84</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41566.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>53.38</v>
+        <v>5.34</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>4.64</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41566.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>41.87</v>
+        <v>4.19</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>34.62</v>
+        <v>3.46</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>55.65</v>
+        <v>5.57</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>222.71</v>
+        <v>22.27</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>42.17</v>
+        <v>4.22</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>28.44</v>
+        <v>2.84</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>27.47</v>
+        <v>2.75</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>50.23</v>
+        <v>5.02</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_134.xlsx
+++ b/DATA_goal/Junction_Flooding_134.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44815.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4.95</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.73</v>
+        <v>227.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.29</v>
+        <v>42.87</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.83</v>
+        <v>28.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44815.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.73</v>
+        <v>37.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.35</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.26</v>
+        <v>52.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.46</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.7</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.79</v>
+        <v>37.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.79</v>
+        <v>47.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44815.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44815.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.32</v>
+        <v>53.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.37</v>
+        <v>43.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.93</v>
+        <v>69.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.45</v>
+        <v>284.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.35</v>
+        <v>53.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.6</v>
+        <v>35.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.26</v>
+        <v>62.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_134.xlsx
+++ b/DATA_goal/Junction_Flooding_134.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44815.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44815.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.28</v>
+        <v>12.283</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.34</v>
+        <v>37.338</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.35</v>
+        <v>30.347</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>52.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.08</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.46</v>
+        <v>13.463</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.95</v>
+        <v>14.949</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.628</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.348</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>19.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.61</v>
+        <v>11.611</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.568</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.086</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.7</v>
+        <v>198.697</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>37.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.19</v>
+        <v>25.193</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.13</v>
+        <v>13.129</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.32</v>
+        <v>2.322</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.52</v>
+        <v>25.524</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.04</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.67</v>
+        <v>11.675</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.5</v>
+        <v>15.499</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.86</v>
+        <v>47.862</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.95</v>
+        <v>6.949</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>15.62</v>
@@ -863,7 +863,7 @@
         <v>44815.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.62</v>
@@ -872,94 +872,94 @@
         <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.99</v>
+        <v>2.995</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.068</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.14</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.796</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.207</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.139</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.397</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.64</v>
+        <v>1.642</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.255</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.99</v>
+        <v>9.992000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>3.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.066</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.533</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.05</v>
+        <v>5.048</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.151</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>1.13</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.285</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44815.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_134.xlsx
+++ b/DATA_goal/Junction_Flooding_134.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44815.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.06</v>
+        <v>18.065</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.376</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.22</v>
+        <v>53.216</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.66</v>
+        <v>43.663</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.31</v>
+        <v>69.30800000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.157</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.54</v>
+        <v>19.543</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.368</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.5</v>
+        <v>22.503</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.157</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.26</v>
+        <v>27.262</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.14</v>
+        <v>16.143</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>284.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.48</v>
+        <v>53.484</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.97</v>
+        <v>35.973</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.9</v>
+        <v>18.898</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.81</v>
+        <v>2.811</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.45</v>
+        <v>34.448</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.86</v>
+        <v>13.865</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.3</v>
+        <v>16.295</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.37</v>
+        <v>22.371</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>62.632</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>9.978999999999999</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>22.127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44815.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>62.63</v>
-      </c>
-      <c r="AG5" s="4" t="n">
+      <c r="T6" s="4" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
         <v>9.98</v>
       </c>
-      <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+      <c r="Y6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_134.xlsx
+++ b/DATA_goal/Junction_Flooding_134.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44815.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.502</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.065</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.376</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.216</v>
+        <v>53.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.663</v>
+        <v>43.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.282</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.30800000000001</v>
+        <v>69.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.157</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.543</v>
+        <v>19.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.368</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.503</v>
+        <v>22.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.157</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.262</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.143</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.884</v>
+        <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>284.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.484</v>
+        <v>53.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.973</v>
+        <v>35.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.898</v>
+        <v>18.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.811</v>
+        <v>2.81</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.448</v>
+        <v>34.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.633</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.865</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.295</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.371</v>
+        <v>22.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.632</v>
+        <v>62.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44815.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
